--- a/Amp/GB＿Amps.xlsx
+++ b/Amp/GB＿Amps.xlsx
@@ -21,56 +21,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55" uniqueCount="55">
+  <si>
+    <t>Blues Blaster Combo</t>
+  </si>
   <si>
     <t>Small Tweed Combo</t>
   </si>
   <si>
-    <t>Blues Blaster Combo</t>
-  </si>
-  <si>
     <t>Pawnshop Combo</t>
   </si>
   <si>
     <t>Large Tweed Combo</t>
   </si>
   <si>
+    <t>Boutique Retro Combo</t>
+  </si>
+  <si>
+    <t>Silver Panel Combo</t>
+  </si>
+  <si>
     <t>Tweed Fender Champ</t>
   </si>
   <si>
     <t>Mini Tweed Combo</t>
   </si>
   <si>
-    <t>Boutique Retro Combo</t>
-  </si>
-  <si>
-    <t>Silver Panel Combo</t>
-  </si>
-  <si>
     <t>Large Black Panel Combo</t>
   </si>
   <si>
+    <t>Stadium Combo</t>
+  </si>
+  <si>
+    <t>Small Brown Panel Combo</t>
+  </si>
+  <si>
     <t>Supro S6616</t>
   </si>
   <si>
-    <t>Small Brown Panel Combo</t>
-  </si>
-  <si>
-    <t>Stadium Combo</t>
+    <t>British Combo</t>
+  </si>
+  <si>
+    <t>Mini Black Panel Combo</t>
+  </si>
+  <si>
+    <t>Marshall Bluesbreaker</t>
   </si>
   <si>
     <t>Mesa/Boogie Dual Rectifier</t>
   </si>
   <si>
-    <t>Marshall Bluesbreaker</t>
-  </si>
-  <si>
-    <t>Mini Black Panel Combo</t>
-  </si>
-  <si>
-    <t>British Combo</t>
-  </si>
-  <si>
     <t>Vintage British Stack</t>
   </si>
   <si>
@@ -86,15 +86,15 @@
     <t>Small British Combo</t>
   </si>
   <si>
+    <t>Transparent Preamp</t>
+  </si>
+  <si>
+    <t>Stadium Stack</t>
+  </si>
+  <si>
     <t>Boutique British Combo</t>
   </si>
   <si>
-    <t>Stadium Stack</t>
-  </si>
-  <si>
-    <t>Transparent Preamp</t>
-  </si>
-  <si>
     <t>Sunshine Stack</t>
   </si>
   <si>
@@ -104,27 +104,27 @@
     <t>Modern American Stack</t>
   </si>
   <si>
+    <t>High Octane Stack</t>
+  </si>
+  <si>
     <t>Diezel/Soldano SLO-100</t>
   </si>
   <si>
-    <t>High Octane Stack</t>
-  </si>
-  <si>
     <t>Turbo Stack</t>
   </si>
   <si>
     <t>Studio Combo</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Marshall JCM800</t>
+  </si>
+  <si>
     <t>Vox AC-30</t>
   </si>
   <si>
-    <t>Marshall JCM800</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Tweed Fender Deluxe</t>
   </si>
   <si>
@@ -134,24 +134,27 @@
     <t>Fender Blackface Super Reverb/Twin Reverb</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Fender Silverface Twin Reverb</t>
   </si>
   <si>
     <t>Fender Princeton/Vibro/Deluxe</t>
   </si>
   <si>
+    <t>Fender Brownface Deluxe/Vibrolux/Tweed Deluxe</t>
+  </si>
+  <si>
     <t>Marshall Super Lead Plexi with Variac modification</t>
   </si>
   <si>
-    <t>Fender Brownface Deluxe/Vibrolux/Tweed Deluxe</t>
+    <t>Fender Brown Pro/Vibrosonic</t>
   </si>
   <si>
     <t>Hiwatt 200DR</t>
   </si>
   <si>
-    <t>Fender Brown Pro/Vibrosonic</t>
-  </si>
-  <si>
     <t>Marshall Plexi Lead 100/Plexi 45</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>Orange AD30</t>
   </si>
   <si>
+    <t>Direct</t>
+  </si>
+  <si>
     <t>Orange Tiny Terror</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
   </si>
   <si>
     <t>Silvertone Twin Twelve</t>
+  </si>
+  <si>
+    <t>Amp</t>
   </si>
 </sst>
 </file>
@@ -540,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B2:C28"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -552,20 +561,32 @@
     <col min="3" max="3" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -573,15 +594,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -589,23 +616,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -613,23 +649,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -637,132 +682,186 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="19.5">
+    <row r="17" spans="1:3" ht="19.5">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="19.5">
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="19.5">
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="19.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19.5">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:C28">
+    <sortCondition ref="A3:A28"/>
+  </sortState>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
